--- a/sputnik/personal/uch/uch113.xlsx
+++ b/sputnik/personal/uch/uch113.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t>Наименование / садовый участок №113</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты взноса 2015/2016 на 1338 к.дн.</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты взноса 2016/2017 на 972 к.дн.</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты взноса 2017/2018 на 607 к.дн.</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты взноса 2018/2019 на 242 к.дн.</t>
   </si>
   <si>
     <t>Начислен взнос за пользование инф. с 01.05.2019 по 30.04.2020г.</t>
@@ -69,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +80,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -182,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,7 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -220,18 +201,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -293,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,10 +300,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,7 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -536,17 +509,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -555,8 +528,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -570,8 +543,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A3" s="16">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -582,8 +555,8 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A4" s="16">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -594,8 +567,8 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A5" s="16">
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -606,20 +579,20 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="16">
         <v>43221</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <v>10571.2</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="16">
         <v>43375</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -630,8 +603,8 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="16">
         <v>43425</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -642,79 +615,27 @@
         <v>528.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+    <row r="9" spans="1:4">
+      <c r="A9" s="17">
         <v>43586</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="12">
         <v>10421.18</v>
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>43631</v>
+    <row r="10" spans="1:4">
+      <c r="A10" s="17">
+        <v>43739</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16">
-        <f>PRODUCT(C3,0.001,1338)</f>
-        <v>6940.875</v>
-      </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>43631</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="16">
-        <f>PRODUCT(C4,0.001,972)</f>
-        <v>4403.6848799999998</v>
-      </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>43631</v>
-      </c>
-      <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16">
-        <f>PRODUCT(C5,0.001,607)</f>
-        <v>3766.0222400000002</v>
-      </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>43631</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="16">
-        <f>PRODUCT(C6,0.001,242)</f>
-        <v>2558.2304000000004</v>
-      </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>43739</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14">
+      <c r="C10" s="12"/>
+      <c r="D10" s="14">
         <v>5759.2</v>
       </c>
     </row>
@@ -726,12 +647,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -740,12 +661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch113.xlsx
+++ b/sputnik/personal/uch/uch113.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,16 +52,19 @@
   </si>
   <si>
     <t>Оплачен взнос за пользование инф. 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,6 +211,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -268,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,9 +304,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,6 +339,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -509,17 +515,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="D10" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -528,8 +534,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -543,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43221</v>
       </c>
@@ -555,7 +561,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43221</v>
       </c>
@@ -567,7 +573,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43221</v>
       </c>
@@ -579,7 +585,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43221</v>
       </c>
@@ -591,7 +597,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43375</v>
       </c>
@@ -603,7 +609,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43425</v>
       </c>
@@ -615,7 +621,7 @@
         <v>528.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>43586</v>
       </c>
@@ -627,7 +633,7 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>43739</v>
       </c>
@@ -637,6 +643,17 @@
       <c r="C10" s="12"/>
       <c r="D10" s="14">
         <v>5759.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11725</v>
       </c>
     </row>
   </sheetData>
@@ -647,12 +664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -661,12 +678,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch113.xlsx
+++ b/sputnik/personal/uch/uch113.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплачен взнос за пользование инф. </t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D7:D10"/>
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,11 +652,34 @@
       <c r="A11" s="18">
         <v>43952</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="12">
         <v>11725</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>44116</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12">
+        <v>9985.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="14">
+        <f>SUM(C3:C12)</f>
+        <v>48639.740000000005</v>
+      </c>
+      <c r="D13" s="14">
+        <f>SUM(D3:D12)</f>
+        <v>19453.379999999997</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch113.xlsx
+++ b/sputnik/personal/uch/uch113.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Оплачен взнос за пользование инф. </t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -165,11 +168,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +242,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +551,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,12 +702,24 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="14">
-        <f>SUM(C3:C12)</f>
-        <v>48639.740000000005</v>
-      </c>
-      <c r="D13" s="14">
-        <f>SUM(D3:D12)</f>
+      <c r="A13" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12">
+        <v>12503.54</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="14">
+        <f>SUM(C3:C13)</f>
+        <v>61143.280000000006</v>
+      </c>
+      <c r="D14" s="14">
+        <f>SUM(D3:D13)</f>
         <v>19453.379999999997</v>
       </c>
     </row>

--- a/sputnik/personal/uch/uch113.xlsx
+++ b/sputnik/personal/uch/uch113.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>итого</t>
+  </si>
+  <si>
+    <t>потери в эл сетях</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,6 +250,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,10 +560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -714,12 +723,40 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="14">
-        <f>SUM(C3:C13)</f>
+      <c r="A14" s="18">
+        <v>44469</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12">
+        <v>10041.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>44469</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12">
+        <v>132.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14">
+        <f>SUM(C1:C13)</f>
         <v>61143.280000000006</v>
       </c>
-      <c r="D14" s="14">
-        <f>SUM(D3:D13)</f>
+      <c r="D16" s="14">
+        <f>SUM(D1:D13)</f>
         <v>19453.379999999997</v>
       </c>
     </row>
